--- a/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E18DDC7E-1677-4A0B-B6FB-7BB21033E750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9205E877-75D9-477E-A893-D66A173920D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5DBE4B9-8D26-46CD-AA9A-47CB4B04154F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A355E71-EEF5-4D22-ADDB-381A0A91C24B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>43,32%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>56,68%</t>
   </si>
   <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>77,97%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>60,93%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>39,07%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,283 +194,283 @@
     <t>57,17%</t>
   </si>
   <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
     <t>38,35%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +479,109 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>37,65%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9220BDD2-054B-4A59-88EA-F5A357D9D493}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B58F-3945-480E-80ED-7BE1118F27AF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,7 +1147,7 @@
         <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>86052</v>
+        <v>86051</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1249,7 +1249,7 @@
         <v>237</v>
       </c>
       <c r="N6" s="7">
-        <v>256253</v>
+        <v>256252</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9205E877-75D9-477E-A893-D66A173920D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{271BCF12-025B-45FD-9F9C-CB260758A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A355E71-EEF5-4D22-ADDB-381A0A91C24B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5359A580-9F68-4028-8243-1C5C9A29B546}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>43,32%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>50,48%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
   </si>
   <si>
     <t>19,23%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>56,68%</t>
   </si>
   <si>
-    <t>49,52%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
   </si>
   <si>
     <t>80,77%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,49 @@
     <t>77,97%</t>
   </si>
   <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>60,93%</t>
   </si>
   <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>22,03%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
   </si>
   <si>
     <t>39,07%</t>
   </si>
   <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +188,55 @@
     <t>57,17%</t>
   </si>
   <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>59,47%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +245,49 @@
     <t>44,93%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
+    <t>38,47%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>38,94%</t>
   </si>
   <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
+    <t>61,53%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>61,06%</t>
   </si>
   <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +296,55 @@
     <t>84,01%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +353,49 @@
     <t>59,54%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>65,38%</t>
   </si>
   <si>
     <t>40,46%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
+    <t>34,62%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +404,55 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
   </si>
   <si>
     <t>38,35%</t>
   </si>
   <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,109 +461,109 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>37,65%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC61B58F-3945-480E-80ED-7BE1118F27AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2B316C-BB22-4F54-9061-3E724F28AC31}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1147,7 +1129,7 @@
         <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>86051</v>
+        <v>86052</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1249,7 +1231,7 @@
         <v>237</v>
       </c>
       <c r="N6" s="7">
-        <v>256252</v>
+        <v>256253</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1305,13 +1287,13 @@
         <v>289899</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1326,13 +1308,13 @@
         <v>59338</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -1341,13 +1323,13 @@
         <v>51189</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
@@ -1356,13 +1338,13 @@
         <v>110527</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1418,7 +1400,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1430,13 +1412,13 @@
         <v>83743</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -1445,13 +1427,13 @@
         <v>33804</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -1460,13 +1442,13 @@
         <v>117547</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1481,13 +1463,13 @@
         <v>62735</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -1496,13 +1478,13 @@
         <v>40775</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -1511,13 +1493,13 @@
         <v>103509</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1573,7 +1555,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1585,13 +1567,13 @@
         <v>88601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -1600,13 +1582,13 @@
         <v>32745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -1615,13 +1597,13 @@
         <v>121346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1636,13 +1618,13 @@
         <v>108591</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -1651,13 +1633,13 @@
         <v>81702</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -1666,13 +1648,13 @@
         <v>190293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1710,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1740,13 +1722,13 @@
         <v>93909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -1755,13 +1737,13 @@
         <v>29172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -1770,13 +1752,13 @@
         <v>123082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,13 +1773,13 @@
         <v>17878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1806,13 +1788,13 @@
         <v>20264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -1821,13 +1803,13 @@
         <v>38141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,7 +1865,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1895,13 +1877,13 @@
         <v>77252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -1910,13 +1892,13 @@
         <v>42379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -1925,13 +1907,13 @@
         <v>119632</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,13 +1928,13 @@
         <v>52495</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -1961,13 +1943,13 @@
         <v>32962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -1976,13 +1958,13 @@
         <v>85456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2050,13 +2032,13 @@
         <v>208081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -2065,13 +2047,13 @@
         <v>97647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>287</v>
@@ -2080,13 +2062,13 @@
         <v>305727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2083,13 @@
         <v>78877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -2116,13 +2098,13 @@
         <v>60749</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>133</v>
@@ -2131,13 +2113,13 @@
         <v>139627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2175,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2187,13 @@
         <v>368510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -2220,13 +2202,13 @@
         <v>139083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>495</v>
@@ -2235,13 +2217,13 @@
         <v>507593</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2238,13 @@
         <v>91370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -2271,13 +2253,13 @@
         <v>83979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -2286,13 +2268,13 @@
         <v>175349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2342,13 @@
         <v>1196285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>461</v>
@@ -2375,13 +2357,13 @@
         <v>474594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>1604</v>
@@ -2390,13 +2372,13 @@
         <v>1670879</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2393,13 @@
         <v>557821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>430</v>
@@ -2426,13 +2408,13 @@
         <v>455282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>966</v>
@@ -2441,13 +2423,13 @@
         <v>1013103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{271BCF12-025B-45FD-9F9C-CB260758A8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4008EB5A-6454-4099-B76A-D3305D971A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5359A580-9F68-4028-8243-1C5C9A29B546}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D74EAA2-6842-4444-A138-DD33B27A06D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
   <si>
     <t>Población según si le han impartido formación sobre prevención de riesgos laborales en su empresa en 2007 (Tasa respuesta: 39,47%)</t>
   </si>
@@ -68,16 +68,16 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
   </si>
   <si>
     <t>19,23%</t>
@@ -86,100 +86,106 @@
     <t>12,01%</t>
   </si>
   <si>
-    <t>27,85%</t>
+    <t>27,17%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -188,55 +194,55 @@
     <t>57,17%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
   </si>
   <si>
     <t>45,33%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
   </si>
   <si>
     <t>53,18%</t>
   </si>
   <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
   </si>
   <si>
     <t>42,83%</t>
   </si>
   <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
   </si>
   <si>
     <t>54,67%</t>
   </si>
   <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>65,78%</t>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
   </si>
   <si>
     <t>46,82%</t>
   </si>
   <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -245,49 +251,55 @@
     <t>44,93%</t>
   </si>
   <si>
-    <t>38,47%</t>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
   </si>
   <si>
     <t>28,61%</t>
   </si>
   <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>38,94%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>55,07%</t>
   </si>
   <si>
-    <t>61,53%</t>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
   </si>
   <si>
     <t>71,39%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>61,06%</t>
   </si>
   <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -296,55 +308,55 @@
     <t>84,01%</t>
   </si>
   <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>59,01%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>15,99%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
   </si>
   <si>
     <t>40,99%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -353,49 +365,55 @@
     <t>59,54%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
   </si>
   <si>
     <t>56,25%</t>
   </si>
   <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
   </si>
   <si>
     <t>58,33%</t>
   </si>
   <si>
-    <t>65,38%</t>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>40,46%</t>
   </si>
   <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>43,75%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
   </si>
   <si>
     <t>41,67%</t>
   </si>
   <si>
-    <t>34,62%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -404,55 +422,55 @@
     <t>72,51%</t>
   </si>
   <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
   </si>
   <si>
     <t>61,65%</t>
   </si>
   <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
   </si>
   <si>
     <t>68,65%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
   </si>
   <si>
     <t>27,49%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
   </si>
   <si>
     <t>38,35%</t>
   </si>
   <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>31,35%</t>
   </si>
   <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -461,109 +479,109 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
   </si>
   <si>
     <t>37,65%</t>
   </si>
   <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>51,04%</t>
   </si>
   <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>48,96%</t>
   </si>
   <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2B316C-BB22-4F54-9061-3E724F28AC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6AA05-E11A-4B0E-B55C-D796663B62E7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1287,13 +1305,13 @@
         <v>289899</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1308,13 +1326,13 @@
         <v>59338</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -1323,13 +1341,13 @@
         <v>51189</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>106</v>
@@ -1338,13 +1356,13 @@
         <v>110527</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1400,7 +1418,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1412,13 +1430,13 @@
         <v>83743</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -1427,13 +1445,13 @@
         <v>33804</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -1442,13 +1460,13 @@
         <v>117547</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1463,13 +1481,13 @@
         <v>62735</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>40</v>
@@ -1478,13 +1496,13 @@
         <v>40775</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>99</v>
@@ -1493,13 +1511,13 @@
         <v>103509</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,7 +1573,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1567,13 +1585,13 @@
         <v>88601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -1582,13 +1600,13 @@
         <v>32745</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -1597,13 +1615,13 @@
         <v>121346</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1618,13 +1636,13 @@
         <v>108591</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>83</v>
@@ -1633,13 +1651,13 @@
         <v>81702</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>190</v>
@@ -1648,13 +1666,13 @@
         <v>190293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,7 +1728,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1722,13 +1740,13 @@
         <v>93909</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
@@ -1737,13 +1755,13 @@
         <v>29172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -1752,13 +1770,13 @@
         <v>123082</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1773,13 +1791,13 @@
         <v>17878</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -1788,13 +1806,13 @@
         <v>20264</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -1803,13 +1821,13 @@
         <v>38141</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,7 +1883,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1877,13 +1895,13 @@
         <v>77252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -1892,13 +1910,13 @@
         <v>42379</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>114</v>
@@ -1907,13 +1925,13 @@
         <v>119632</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1928,13 +1946,13 @@
         <v>52495</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>32</v>
@@ -1943,13 +1961,13 @@
         <v>32962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>83</v>
@@ -1958,13 +1976,13 @@
         <v>85456</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2038,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2032,13 +2050,13 @@
         <v>208081</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>93</v>
@@ -2047,13 +2065,13 @@
         <v>97647</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>287</v>
@@ -2062,13 +2080,13 @@
         <v>305727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2083,13 +2101,13 @@
         <v>78877</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>55</v>
@@ -2098,13 +2116,13 @@
         <v>60749</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>133</v>
@@ -2113,13 +2131,13 @@
         <v>139627</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,7 +2193,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2187,13 +2205,13 @@
         <v>368510</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -2202,13 +2220,13 @@
         <v>139083</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>495</v>
@@ -2217,13 +2235,13 @@
         <v>507593</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2256,13 @@
         <v>91370</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>78</v>
@@ -2253,13 +2271,13 @@
         <v>83979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>166</v>
@@ -2268,13 +2286,13 @@
         <v>175349</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2360,13 @@
         <v>1196285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>461</v>
@@ -2357,13 +2375,13 @@
         <v>474594</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1604</v>
@@ -2372,13 +2390,13 @@
         <v>1670879</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2411,13 @@
         <v>557821</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>430</v>
@@ -2408,13 +2426,13 @@
         <v>455282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>966</v>
@@ -2423,13 +2441,13 @@
         <v>1013103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2503,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P70A02_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4008EB5A-6454-4099-B76A-D3305D971A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{092A05E3-EB17-480B-AC22-9582D2E81CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2D74EAA2-6842-4444-A138-DD33B27A06D3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9BF14008-1899-4F52-A888-EC542FB22C53}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -996,7 +996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC6AA05-E11A-4B0E-B55C-D796663B62E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0687A5B-13E7-4D3F-B8D6-D10F5956F376}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2232,7 +2232,7 @@
         <v>495</v>
       </c>
       <c r="N25" s="7">
-        <v>507593</v>
+        <v>507594</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -2334,7 +2334,7 @@
         <v>661</v>
       </c>
       <c r="N27" s="7">
-        <v>682942</v>
+        <v>682943</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
